--- a/project/report/ProjeTablolar.xlsx
+++ b/project/report/ProjeTablolar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GTU\4.yıl-2.donem\Database\hwks_project\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GTU\4.yıl-2.donem\Database\hwks_project\project\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C65F55-A641-4FFA-8AF6-87D2DEB464DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA58E49-4177-4705-884A-D2901DDBFBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-2916" windowWidth="23256" windowHeight="12720" tabRatio="358" xr2:uid="{6AABB6A7-AA20-495F-8FDB-0AC6EB566978}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="120">
   <si>
     <t>Customer</t>
   </si>
@@ -100,9 +100,6 @@
     <t>CountryCode</t>
   </si>
   <si>
-    <t>ActiveOrder</t>
-  </si>
-  <si>
     <t>OrderID</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>TotalPrice</t>
   </si>
   <si>
-    <t>PaymentMethod</t>
-  </si>
-  <si>
     <t>OldOrder</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t>PhoneNumberIDF</t>
   </si>
   <si>
-    <t>DeliveryTime</t>
-  </si>
-  <si>
     <t>MinDeliveryPrice</t>
   </si>
   <si>
@@ -220,12 +211,6 @@
     <t>PaymentType</t>
   </si>
   <si>
-    <t>PaymentID</t>
-  </si>
-  <si>
-    <t>PaymentName</t>
-  </si>
-  <si>
     <t>PaymentRestaurant</t>
   </si>
   <si>
@@ -283,9 +268,6 @@
     <t>ReviewID</t>
   </si>
   <si>
-    <t>ScoreIDF</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -337,12 +319,6 @@
     <t>CouponName</t>
   </si>
   <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
     <t>DiscountAmount</t>
   </si>
   <si>
@@ -361,12 +337,6 @@
     <t>StatusID</t>
   </si>
   <si>
-    <t>StatusName</t>
-  </si>
-  <si>
-    <t>UpdateDate</t>
-  </si>
-  <si>
     <t>StatusIDF</t>
   </si>
   <si>
@@ -380,6 +350,51 @@
   </si>
   <si>
     <t>AddressTypeIDF</t>
+  </si>
+  <si>
+    <t>OpensAt</t>
+  </si>
+  <si>
+    <t>ClosesAt</t>
+  </si>
+  <si>
+    <t>MinDeliveryTime</t>
+  </si>
+  <si>
+    <t>PaymentTypeID</t>
+  </si>
+  <si>
+    <t>PaymentTypeName</t>
+  </si>
+  <si>
+    <t>LastUpdateTime</t>
+  </si>
+  <si>
+    <t>StatusDetail</t>
+  </si>
+  <si>
+    <t>ScoreAverage</t>
+  </si>
+  <si>
+    <t>CouponDetails</t>
+  </si>
+  <si>
+    <t>IsOnline</t>
+  </si>
+  <si>
+    <t>MinBasketPrice</t>
+  </si>
+  <si>
+    <t>PaymentTypeIDF</t>
+  </si>
+  <si>
+    <t>ReviewIDF</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>IsDelivered</t>
   </si>
 </sst>
 </file>
@@ -404,12 +419,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -424,12 +451,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -749,7 +782,7 @@
   <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +799,7 @@
     <col min="11" max="11" width="19.28515625" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" customWidth="1"/>
     <col min="16" max="16" width="26.28515625" customWidth="1"/>
     <col min="17" max="17" width="23.140625" customWidth="1"/>
@@ -780,77 +813,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="J1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>106</v>
+      <c r="S1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -879,67 +912,67 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
@@ -947,73 +980,73 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="T3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
@@ -1021,7 +1054,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1030,45 +1063,47 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="Q4" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
@@ -1083,42 +1118,45 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="O5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="R5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -1128,42 +1166,45 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="O6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="R6" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -1173,35 +1214,35 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O7" s="1"/>
       <c r="T7" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -1211,10 +1252,10 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1222,32 +1263,32 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O8" s="1"/>
       <c r="T8" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1255,19 +1296,19 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O9" s="1"/>
       <c r="T9" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1275,9 +1316,9 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I10" s="1"/>
@@ -1286,11 +1327,14 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="O10" s="1"/>
       <c r="T10" s="1" t="s">
-        <v>87</v>
+        <v>112</v>
+      </c>
+      <c r="V10" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
@@ -1300,8 +1344,8 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>110</v>
+      <c r="H11" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1309,9 +1353,12 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="O11" s="1"/>
+      <c r="V11" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -1321,13 +1368,14 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
@@ -1337,14 +1385,12 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">

--- a/project/report/ProjeTablolar.xlsx
+++ b/project/report/ProjeTablolar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GTU\4.yıl-2.donem\Database\hwks_project\project\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA58E49-4177-4705-884A-D2901DDBFBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA0E76C-24BA-4994-83E4-8DB30C8C464C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-2916" windowWidth="23256" windowHeight="12720" tabRatio="358" xr2:uid="{6AABB6A7-AA20-495F-8FDB-0AC6EB566978}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
   <si>
     <t>Customer</t>
   </si>
@@ -118,9 +118,6 @@
     <t>TotalPrice</t>
   </si>
   <si>
-    <t>OldOrder</t>
-  </si>
-  <si>
     <t>DeliveryDate</t>
   </si>
   <si>
@@ -395,6 +392,33 @@
   </si>
   <si>
     <t>IsDelivered</t>
+  </si>
+  <si>
+    <t>StatusType</t>
+  </si>
+  <si>
+    <t>LogID</t>
+  </si>
+  <si>
+    <t>LogTime</t>
+  </si>
+  <si>
+    <t>FoodLog</t>
+  </si>
+  <si>
+    <t>WalletLog</t>
+  </si>
+  <si>
+    <t>OldBalance</t>
+  </si>
+  <si>
+    <t>NewBalance</t>
+  </si>
+  <si>
+    <t>OperationDetails</t>
+  </si>
+  <si>
+    <t>DeletedTime</t>
   </si>
 </sst>
 </file>
@@ -419,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,12 +453,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +480,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -779,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8999D830-3089-4B33-9610-264091E10430}">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AL23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,26 +811,27 @@
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="6" width="27.42578125" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" customWidth="1"/>
-    <col min="16" max="16" width="26.28515625" customWidth="1"/>
-    <col min="17" max="17" width="23.140625" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" customWidth="1"/>
-    <col min="23" max="23" width="21.42578125" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -823,7 +842,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -832,60 +851,62 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>57</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y1" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
@@ -899,9 +920,8 @@
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -912,149 +932,155 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1063,50 +1089,53 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1118,45 +1147,51 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="K5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="Q5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -1166,45 +1201,48 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="K6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="Q6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="Y6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -1214,35 +1252,41 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>100</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="M7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="T7" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -1254,31 +1298,28 @@
       <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="S8" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="T8" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1287,26 +1328,23 @@
       <c r="G9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="T9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="M9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="S9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1316,91 +1354,91 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="T10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="V10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="M10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="S10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="V11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="M11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="S11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="G12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
+      <c r="G13" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/project/report/ProjeTablolar.xlsx
+++ b/project/report/ProjeTablolar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GTU\4.yıl-2.donem\Database\hwks_project\project\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA0E76C-24BA-4994-83E4-8DB30C8C464C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B88CD9-D37F-4A35-92FD-D22AD4C3E43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-2916" windowWidth="23256" windowHeight="12720" tabRatio="358" xr2:uid="{6AABB6A7-AA20-495F-8FDB-0AC6EB566978}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="124">
   <si>
     <t>Customer</t>
   </si>
@@ -328,15 +328,6 @@
     <t>CouponIDF</t>
   </si>
   <si>
-    <t>OrderStatus</t>
-  </si>
-  <si>
-    <t>StatusID</t>
-  </si>
-  <si>
-    <t>StatusIDF</t>
-  </si>
-  <si>
     <t>BirthDate</t>
   </si>
   <si>
@@ -392,9 +383,6 @@
   </si>
   <si>
     <t>IsDelivered</t>
-  </si>
-  <si>
-    <t>StatusType</t>
   </si>
   <si>
     <t>LogID</t>
@@ -797,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8999D830-3089-4B33-9610-264091E10430}">
-  <dimension ref="A1:AL23"/>
+  <dimension ref="A1:AK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,12 +814,11 @@
     <col min="20" max="20" width="15.28515625" customWidth="1"/>
     <col min="21" max="21" width="15.5703125" customWidth="1"/>
     <col min="22" max="22" width="21.42578125" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" customWidth="1"/>
-    <col min="25" max="25" width="19.28515625" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -851,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>28</v>
@@ -899,14 +886,12 @@
         <v>95</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>123</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
@@ -919,9 +904,8 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -962,7 +946,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>58</v>
@@ -989,16 +973,13 @@
         <v>96</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1039,7 +1020,7 @@
         <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>43</v>
@@ -1066,21 +1047,18 @@
         <v>42</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1102,13 +1080,13 @@
         <v>34</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>61</v>
@@ -1126,16 +1104,13 @@
         <v>92</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1158,14 +1133,14 @@
         <v>33</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>81</v>
       </c>
       <c r="N5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>33</v>
@@ -1177,21 +1152,18 @@
         <v>86</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -1201,7 +1173,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1215,11 +1187,11 @@
         <v>45</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>70</v>
@@ -1233,14 +1205,14 @@
       <c r="U6" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="W6" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="X6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -1252,7 +1224,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1277,14 +1249,14 @@
       <c r="U7" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="W7" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="X7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1296,7 +1268,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1317,7 +1289,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1326,7 +1298,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1344,7 +1316,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1354,7 +1326,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1366,20 +1338,20 @@
       </c>
       <c r="N10" s="1"/>
       <c r="S10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U10" t="s">
         <v>111</v>
       </c>
-      <c r="U10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="4" t="s">
-        <v>25</v>
+      <c r="G11" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1391,13 +1363,13 @@
       </c>
       <c r="N11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="U11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1405,7 +1377,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1414,7 +1386,7 @@
       <c r="L12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1422,7 +1394,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="4" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1431,14 +1403,17 @@
       <c r="L13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="G14" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/project/report/ProjeTablolar.xlsx
+++ b/project/report/ProjeTablolar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GTU\4.yıl-2.donem\Database\hwks_project\project\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B88CD9-D37F-4A35-92FD-D22AD4C3E43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC7D35B-9C6A-41A9-BE72-7094F62E3F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-2916" windowWidth="23256" windowHeight="12720" tabRatio="358" xr2:uid="{6AABB6A7-AA20-495F-8FDB-0AC6EB566978}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="123">
   <si>
     <t>Customer</t>
   </si>
@@ -374,9 +374,6 @@
   </si>
   <si>
     <t>PaymentTypeIDF</t>
-  </si>
-  <si>
-    <t>ReviewIDF</t>
   </si>
   <si>
     <t>Orders</t>
@@ -787,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8999D830-3089-4B33-9610-264091E10430}">
   <dimension ref="A1:AK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>28</v>
@@ -886,10 +883,10 @@
         <v>95</v>
       </c>
       <c r="W1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -973,10 +970,10 @@
         <v>96</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -1047,10 +1044,10 @@
         <v>42</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -1107,7 +1104,7 @@
         <v>67</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -1158,7 +1155,7 @@
         <v>68</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -1209,7 +1206,7 @@
         <v>33</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -1351,7 +1348,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1363,7 +1360,7 @@
       </c>
       <c r="N11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="U11" t="s">
         <v>112</v>
@@ -1406,9 +1403,7 @@
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="G14" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>

--- a/project/report/ProjeTablolar.xlsx
+++ b/project/report/ProjeTablolar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GTU\4.yıl-2.donem\Database\hwks_project\project\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC7D35B-9C6A-41A9-BE72-7094F62E3F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB190943-4741-451F-9E20-3004F2294055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-2916" windowWidth="23256" windowHeight="12720" tabRatio="358" xr2:uid="{6AABB6A7-AA20-495F-8FDB-0AC6EB566978}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="122">
   <si>
     <t>Customer</t>
   </si>
@@ -286,21 +286,12 @@
     <t>Campaign</t>
   </si>
   <si>
-    <t>CampaignID</t>
-  </si>
-  <si>
-    <t>CampaignName</t>
-  </si>
-  <si>
     <t>StartDate</t>
   </si>
   <si>
     <t>FinishDate</t>
   </si>
   <si>
-    <t>CampaignDetails</t>
-  </si>
-  <si>
     <t>CampaignImage</t>
   </si>
   <si>
@@ -310,12 +301,6 @@
     <t>Coupon</t>
   </si>
   <si>
-    <t>CouponID</t>
-  </si>
-  <si>
-    <t>CouponName</t>
-  </si>
-  <si>
     <t>DiscountAmount</t>
   </si>
   <si>
@@ -364,9 +349,6 @@
     <t>ScoreAverage</t>
   </si>
   <si>
-    <t>CouponDetails</t>
-  </si>
-  <si>
     <t>IsOnline</t>
   </si>
   <si>
@@ -404,6 +386,21 @@
   </si>
   <si>
     <t>DeletedTime</t>
+  </si>
+  <si>
+    <t>Offer</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IDF</t>
   </si>
 </sst>
 </file>
@@ -784,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8999D830-3089-4B33-9610-264091E10430}">
   <dimension ref="A1:AK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,6 +810,7 @@
     <col min="22" max="22" width="21.42578125" customWidth="1"/>
     <col min="23" max="23" width="15.7109375" customWidth="1"/>
     <col min="24" max="24" width="19.28515625" customWidth="1"/>
+    <col min="25" max="25" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
@@ -835,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>28</v>
@@ -877,18 +875,20 @@
         <v>82</v>
       </c>
       <c r="U1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="V1" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="W1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
@@ -943,7 +943,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>58</v>
@@ -961,19 +961,22 @@
         <v>75</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="W2" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -1017,7 +1020,7 @@
         <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>43</v>
@@ -1035,19 +1038,22 @@
         <v>42</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -1055,7 +1061,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1077,13 +1083,13 @@
         <v>34</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>61</v>
@@ -1095,16 +1101,19 @@
         <v>43</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -1130,14 +1139,14 @@
         <v>33</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>81</v>
       </c>
       <c r="N5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>33</v>
@@ -1145,22 +1154,23 @@
       <c r="S5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>109</v>
+      <c r="T5" s="1"/>
+      <c r="U5" t="s">
+        <v>105</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>68</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -1170,7 +1180,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1184,11 +1194,11 @@
         <v>45</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>70</v>
@@ -1196,17 +1206,18 @@
       <c r="S6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>85</v>
+      <c r="T6" s="1"/>
+      <c r="U6" t="s">
+        <v>106</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -1221,7 +1232,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1240,17 +1251,15 @@
       <c r="S7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="U7" s="1"/>
       <c r="W7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -1265,7 +1274,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1279,12 +1288,8 @@
       <c r="S8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1309,9 +1314,6 @@
       <c r="S9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1335,10 +1337,7 @@
       </c>
       <c r="N10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -1348,7 +1347,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1361,9 +1360,6 @@
       <c r="N11" s="1"/>
       <c r="S11" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="U11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">

--- a/project/report/ProjeTablolar.xlsx
+++ b/project/report/ProjeTablolar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GTU\4.yıl-2.donem\Database\hwks_project\project\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB190943-4741-451F-9E20-3004F2294055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D928C63F-CDA0-42A1-9846-3810FEE7EB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16284" yWindow="-2916" windowWidth="23256" windowHeight="12720" tabRatio="358" xr2:uid="{6AABB6A7-AA20-495F-8FDB-0AC6EB566978}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" tabRatio="358" xr2:uid="{6AABB6A7-AA20-495F-8FDB-0AC6EB566978}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -782,7 +782,7 @@
   <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/project/report/ProjeTablolar.xlsx
+++ b/project/report/ProjeTablolar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GTU\4.yıl-2.donem\Database\hwks_project\project\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D928C63F-CDA0-42A1-9846-3810FEE7EB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F34460-F4E4-4960-995C-782144FDDEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" tabRatio="358" xr2:uid="{6AABB6A7-AA20-495F-8FDB-0AC6EB566978}"/>
+    <workbookView xWindow="16284" yWindow="-2916" windowWidth="23256" windowHeight="12720" tabRatio="358" xr2:uid="{6AABB6A7-AA20-495F-8FDB-0AC6EB566978}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,21 +425,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -447,11 +441,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -459,10 +481,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -781,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8999D830-3089-4B33-9610-264091E10430}">
   <dimension ref="A1:AK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,92 +839,92 @@
     <col min="16" max="16" width="23.140625" customWidth="1"/>
     <col min="17" max="17" width="13.42578125" customWidth="1"/>
     <col min="18" max="18" width="16.28515625" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
     <col min="20" max="20" width="15.28515625" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
     <col min="22" max="22" width="21.42578125" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="20" customWidth="1"/>
     <col min="24" max="24" width="19.28515625" customWidth="1"/>
     <col min="25" max="25" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="2"/>
+      <c r="Z1" s="3"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
@@ -903,506 +938,629 @@
       <c r="AK1" s="2"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="O4" s="8"/>
+      <c r="P4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="R4" s="8"/>
+      <c r="S4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="V4" s="8"/>
+      <c r="W4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="P5" s="1" t="s">
+      <c r="N5" s="5"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="R5" s="8"/>
+      <c r="S5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="T5" s="1"/>
-      <c r="U5" t="s">
+      <c r="T5" s="5"/>
+      <c r="U5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="V5" s="8"/>
+      <c r="W5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X5" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Y5" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="P6" s="1" t="s">
+      <c r="N6" s="5"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="R6" s="8"/>
+      <c r="S6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="T6" s="1"/>
-      <c r="U6" t="s">
+      <c r="T6" s="5"/>
+      <c r="U6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="V6" s="8"/>
+      <c r="W6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Y6" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="Q7" s="1" t="s">
+      <c r="N7" s="5"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="R7" s="8"/>
+      <c r="S7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="U7" s="1"/>
-      <c r="W7" s="1" t="s">
+      <c r="T7" s="8"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="S8" s="1" t="s">
+      <c r="N8" s="5"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="S9" s="1" t="s">
+      <c r="N9" s="5"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="S10" s="1" t="s">
+      <c r="N10" s="5"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="5" t="s">
         <v>103</v>
       </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="S11" s="1" t="s">
+      <c r="N11" s="5"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="4" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="4" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="G14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1429,7 +1587,7 @@
       <c r="A23" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/project/report/ProjeTablolar.xlsx
+++ b/project/report/ProjeTablolar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GTU\4.yıl-2.donem\Database\hwks_project\project\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F34460-F4E4-4960-995C-782144FDDEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E70A23E-BD88-4D7C-86C7-FA3C737647F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-2916" windowWidth="23256" windowHeight="12720" tabRatio="358" xr2:uid="{6AABB6A7-AA20-495F-8FDB-0AC6EB566978}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="122">
   <si>
     <t>Customer</t>
   </si>
@@ -425,12 +425,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -473,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -484,13 +496,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -498,6 +504,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -816,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8999D830-3089-4B33-9610-264091E10430}">
   <dimension ref="A1:AK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,79 +864,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="8" t="s">
         <v>117</v>
       </c>
       <c r="Z1" s="3"/>
@@ -938,629 +953,631 @@
       <c r="AK1" s="2"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="W3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="6"/>
+      <c r="S4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="V6" s="6"/>
+      <c r="W6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V4" s="8"/>
-      <c r="W4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="V5" s="8"/>
-      <c r="W5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V6" s="8"/>
-      <c r="W6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="5" t="s">
+      <c r="N11" s="4"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="9" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="9" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
